--- a/EqnSolver/input/model_inputs.xlsx
+++ b/EqnSolver/input/model_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siva\uvaprojects\CombinatorialProjectomics\EqnSolver\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFD3433-C804-4FC9-A0C8-13A265765AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56158D6-CB56-4D42-83C8-B5499CA6B78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2625" windowWidth="29040" windowHeight="15720" xr2:uid="{A34775F9-2987-4BE0-BD26-36600A34A384}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A34775F9-2987-4BE0-BD26-36600A34A384}"/>
   </bookViews>
   <sheets>
     <sheet name="m0" sheetId="10" r:id="rId1"/>
@@ -171,7 +171,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,26 +488,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5D84ED-B89C-4BBA-8804-AD2831EC99D9}">
   <dimension ref="A1:Y85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="5"/>
+    <col min="1" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="5"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="5" customWidth="1"/>
-    <col min="18" max="18" width="16.33203125" customWidth="1"/>
-    <col min="22" max="22" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.44140625" customWidth="1"/>
+    <col min="24" max="24" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1757</v>
       </c>
@@ -568,7 +566,7 @@
         <v>0.16197916666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1052</v>
       </c>
@@ -596,7 +594,7 @@
         <v>0.23395833333333332</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>103</v>
       </c>
@@ -624,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1944</v>
       </c>
@@ -653,7 +651,7 @@
       </c>
       <c r="Y5" s="10"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>344</v>
       </c>
@@ -682,7 +680,7 @@
       </c>
       <c r="Y6" s="10"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>463</v>
       </c>
@@ -711,7 +709,7 @@
       </c>
       <c r="Y7" s="10"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>100</v>
       </c>
@@ -740,7 +738,7 @@
       </c>
       <c r="Y8" s="10"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1203</v>
       </c>
@@ -768,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1220</v>
       </c>
@@ -796,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>81</v>
       </c>
@@ -824,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>502</v>
       </c>
@@ -852,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>94</v>
       </c>
@@ -880,7 +878,7 @@
         <v>7.7083333333333337E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -908,7 +906,7 @@
         <v>1.21875E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -936,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>745</v>
       </c>
@@ -961,7 +959,7 @@
         <v>2.4270833333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2573</v>
       </c>
@@ -975,7 +973,7 @@
         <v>0.85620527000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>164</v>
       </c>
@@ -989,7 +987,7 @@
         <v>0.67885072499999999</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>234</v>
       </c>
@@ -1003,7 +1001,7 @@
         <v>0.68651150800000005</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>33</v>
       </c>
@@ -1017,7 +1015,7 @@
         <v>0.612883277</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>256</v>
       </c>
@@ -1031,7 +1029,7 @@
         <v>0.92098777899999995</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>36</v>
       </c>
@@ -1045,7 +1043,7 @@
         <v>0.90682936400000003</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1743</v>
       </c>
@@ -1059,7 +1057,7 @@
         <v>0.72911883899999996</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1771</v>
       </c>
@@ -1073,7 +1071,7 @@
         <v>0.44928797700000001</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2793</v>
       </c>
@@ -1087,7 +1085,7 @@
         <v>0.77112206299999997</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>50</v>
       </c>
@@ -1101,7 +1099,7 @@
         <v>0.411313651</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>9</v>
       </c>
@@ -1115,7 +1113,7 @@
         <v>0.542625315</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>744</v>
       </c>
@@ -1129,7 +1127,7 @@
         <v>0.96824497899999995</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>129</v>
       </c>
@@ -1143,7 +1141,7 @@
         <v>0.77351717200000003</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>872</v>
       </c>
@@ -1157,7 +1155,7 @@
         <v>0.98860772399999997</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>892</v>
       </c>
@@ -1171,7 +1169,7 @@
         <v>0.58015831200000001</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>44</v>
       </c>
@@ -1185,7 +1183,7 @@
         <v>0.66801403000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>741</v>
       </c>
@@ -1199,7 +1197,7 @@
         <v>0.296609014</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>51</v>
       </c>
@@ -1213,7 +1211,7 @@
         <v>0.986049332</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>100</v>
       </c>
@@ -1227,7 +1225,7 @@
         <v>0.84058955300000004</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
@@ -1241,7 +1239,7 @@
         <v>0.67348186700000001</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1561</v>
       </c>
@@ -1255,7 +1253,7 @@
         <v>0.77608772400000003</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4045</v>
       </c>
@@ -1266,7 +1264,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>421</v>
       </c>
@@ -1277,7 +1275,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>527</v>
       </c>
@@ -1288,7 +1286,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>113</v>
       </c>
@@ -1299,7 +1297,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>16</v>
       </c>
@@ -1310,7 +1308,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>93</v>
       </c>
@@ -1321,7 +1319,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>987</v>
       </c>
@@ -1332,7 +1330,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4043</v>
       </c>
@@ -1343,7 +1341,7 @@
         <v>3639</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>386</v>
       </c>
@@ -1354,7 +1352,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>63</v>
       </c>
@@ -1365,7 +1363,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>15</v>
       </c>
@@ -1376,7 +1374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>731</v>
       </c>
@@ -1387,7 +1385,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>179</v>
       </c>
@@ -1398,7 +1396,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3370</v>
       </c>
@@ -1409,7 +1407,7 @@
         <v>3707</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>814</v>
       </c>
@@ -1420,7 +1418,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1413</v>
       </c>
@@ -1431,7 +1429,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>391</v>
       </c>
@@ -1442,7 +1440,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>72</v>
       </c>
@@ -1453,7 +1451,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>319</v>
       </c>
@@ -1464,7 +1462,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>59</v>
       </c>
@@ -1475,7 +1473,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>647</v>
       </c>
@@ -1486,7 +1484,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1290</v>
       </c>
@@ -1497,7 +1495,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6</v>
       </c>
@@ -1508,7 +1506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3047</v>
       </c>
@@ -1519,7 +1517,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>208</v>
       </c>
@@ -1530,7 +1528,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2170</v>
       </c>
@@ -1541,7 +1539,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>191</v>
       </c>
@@ -1552,7 +1550,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1248</v>
       </c>
@@ -1563,7 +1561,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5955</v>
       </c>
@@ -1574,7 +1572,7 @@
         <v>6551</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>574</v>
       </c>
@@ -1585,7 +1583,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>444</v>
       </c>
@@ -1596,7 +1594,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>54</v>
       </c>
@@ -1607,7 +1605,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>30</v>
       </c>
@@ -1618,7 +1616,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>103</v>
       </c>
@@ -1629,7 +1627,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1347</v>
       </c>
@@ -1640,7 +1638,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1270</v>
       </c>
@@ -1651,7 +1649,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>130</v>
       </c>
@@ -1662,7 +1660,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>594</v>
       </c>
@@ -1673,7 +1671,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>162</v>
       </c>
@@ -1684,7 +1682,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>250</v>
       </c>
@@ -1695,7 +1693,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>68</v>
       </c>
@@ -1706,7 +1704,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3071</v>
       </c>
@@ -1717,7 +1715,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>894</v>
       </c>
@@ -1728,7 +1726,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2442</v>
       </c>
@@ -1739,7 +1737,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>226</v>
       </c>
@@ -1750,7 +1748,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>50</v>
       </c>
@@ -1761,7 +1759,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>467</v>
       </c>
@@ -1772,7 +1770,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>102</v>
       </c>
@@ -1797,18 +1795,18 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="5"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.44140625" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1830,7 +1828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1835</v>
       </c>
@@ -1851,7 +1849,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>780</v>
       </c>
@@ -1872,7 +1870,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>61</v>
       </c>
@@ -1893,7 +1891,7 @@
         <v>0.1898</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5842</v>
       </c>
@@ -1911,7 +1909,7 @@
         <v>0.1759</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>324</v>
       </c>
@@ -1929,7 +1927,7 @@
         <v>0.2319</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>189</v>
       </c>
@@ -1948,7 +1946,7 @@
         <v>0.23130000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14</v>
       </c>
@@ -1967,7 +1965,7 @@
         <v>0.1135</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>951</v>
       </c>
@@ -1985,7 +1983,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>68</v>
       </c>
@@ -2003,7 +2001,7 @@
         <v>0.1835</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -2021,7 +2019,7 @@
         <v>0.26279999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>25</v>
       </c>
@@ -2039,7 +2037,7 @@
         <v>0.30930000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>78</v>
       </c>
@@ -2057,7 +2055,7 @@
         <v>0.31090000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -2075,7 +2073,7 @@
         <v>0.11360000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2093,7 +2091,7 @@
         <v>0.2077</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>207</v>
       </c>
@@ -2108,7 +2106,7 @@
         <v>7.8600000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>224</v>
       </c>
@@ -2116,7 +2114,7 @@
         <v>8.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
@@ -2124,7 +2122,7 @@
         <v>0.1993</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>64</v>
       </c>
@@ -2132,7 +2130,7 @@
         <v>0.3533</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -2140,7 +2138,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -2148,7 +2146,7 @@
         <v>0.23710000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2156,7 +2154,7 @@
         <v>0.1774</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1026</v>
       </c>
@@ -2164,7 +2162,7 @@
         <v>0.31169999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6965</v>
       </c>
@@ -2172,7 +2170,7 @@
         <v>9.11E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>78</v>
       </c>
@@ -2180,7 +2178,7 @@
         <v>0.20330000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2188,7 +2186,7 @@
         <v>0.25530000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>11</v>
       </c>
@@ -2196,7 +2194,7 @@
         <v>0.31009999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2204,7 +2202,7 @@
         <v>0.35439999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2212,7 +2210,7 @@
         <v>0.20860000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2184</v>
       </c>
@@ -2220,7 +2218,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>135</v>
       </c>
@@ -2228,7 +2226,7 @@
         <v>0.1258</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2236,7 +2234,7 @@
         <v>9.3799999999999994E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5857</v>
       </c>
@@ -2244,7 +2242,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>89</v>
       </c>
@@ -2252,7 +2250,7 @@
         <v>0.1384</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2260,7 +2258,7 @@
         <v>0.27479999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -2268,7 +2266,7 @@
         <v>0.18079999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-100</v>
       </c>
@@ -2276,7 +2274,7 @@
         <v>0.28889999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-100</v>
       </c>
@@ -2284,7 +2282,7 @@
         <v>0.25380000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-100</v>
       </c>
@@ -2292,7 +2290,7 @@
         <v>0.38340000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-100</v>
       </c>
@@ -2300,7 +2298,7 @@
         <v>2.5899999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-100</v>
       </c>
@@ -2308,7 +2306,7 @@
         <v>0.28620000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-100</v>
       </c>
@@ -2316,7 +2314,7 @@
         <v>0.2319</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-100</v>
       </c>
@@ -2324,7 +2322,7 @@
         <v>6.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>370</v>
       </c>
@@ -2332,7 +2330,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1147</v>
       </c>
@@ -2340,7 +2338,7 @@
         <v>0.23430000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -2348,7 +2346,7 @@
         <v>0.55779999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>71</v>
       </c>
@@ -2356,7 +2354,7 @@
         <v>0.47689999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
@@ -2364,7 +2362,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>32</v>
       </c>
@@ -2372,7 +2370,7 @@
         <v>0.50349999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0</v>
       </c>
@@ -2380,7 +2378,7 @@
         <v>0.27250000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-100</v>
       </c>
@@ -2388,7 +2386,7 @@
         <v>0.19370000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-100</v>
       </c>
@@ -2396,7 +2394,7 @@
         <v>0.27150000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-100</v>
       </c>
@@ -2404,7 +2402,7 @@
         <v>0.17949999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-100</v>
       </c>
@@ -2412,7 +2410,7 @@
         <v>0.18759999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-100</v>
       </c>
@@ -2420,7 +2418,7 @@
         <v>0.34899999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-100</v>
       </c>
@@ -2428,7 +2426,7 @@
         <v>0.34089999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-100</v>
       </c>
@@ -2436,7 +2434,7 @@
         <v>0.3417</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-100</v>
       </c>
@@ -2444,7 +2442,7 @@
         <v>0.2671</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-100</v>
       </c>
@@ -2452,7 +2450,7 @@
         <v>7.9299999999999995E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-100</v>
       </c>
@@ -2460,7 +2458,7 @@
         <v>0.2717</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-100</v>
       </c>
@@ -2468,7 +2466,7 @@
         <v>0.36299999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-100</v>
       </c>
@@ -2476,7 +2474,7 @@
         <v>0.24890000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-100</v>
       </c>
@@ -2484,7 +2482,7 @@
         <v>0.30349999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-100</v>
       </c>
@@ -2492,7 +2490,7 @@
         <v>0.2727</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-100</v>
       </c>
@@ -2500,7 +2498,7 @@
         <v>0.16969999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-100</v>
       </c>
@@ -2508,7 +2506,7 @@
         <v>0.22939999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-100</v>
       </c>
@@ -2516,7 +2514,7 @@
         <v>0.12130000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-100</v>
       </c>
@@ -2524,7 +2522,7 @@
         <v>0.2888</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-100</v>
       </c>
@@ -2532,7 +2530,7 @@
         <v>8.5300000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-100</v>
       </c>
@@ -2540,7 +2538,7 @@
         <v>9.3100000000000002E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-100</v>
       </c>
@@ -2548,7 +2546,7 @@
         <v>0.1191</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2301</v>
       </c>
@@ -2556,7 +2554,7 @@
         <v>9.4399999999999998E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3206</v>
       </c>
@@ -2564,7 +2562,7 @@
         <v>0.34379999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>253</v>
       </c>
@@ -2572,7 +2570,7 @@
         <v>0.23250000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>620</v>
       </c>
@@ -2580,7 +2578,7 @@
         <v>0.1245</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>39</v>
       </c>
@@ -2588,7 +2586,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>214</v>
       </c>
@@ -2596,7 +2594,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0</v>
       </c>
@@ -2604,7 +2602,7 @@
         <v>0.1898</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-100</v>
       </c>
@@ -2612,7 +2610,7 @@
         <v>0.1759</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-100</v>
       </c>
@@ -2620,7 +2618,7 @@
         <v>0.2319</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-100</v>
       </c>
@@ -2628,7 +2626,7 @@
         <v>0.23130000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-100</v>
       </c>
@@ -2636,7 +2634,7 @@
         <v>0.1135</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-100</v>
       </c>
@@ -2644,7 +2642,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-100</v>
       </c>
@@ -2652,7 +2650,7 @@
         <v>0.1835</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-100</v>
       </c>
@@ -2660,482 +2658,482 @@
         <v>0.26279999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P86" s="5">
         <v>0.30930000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P87" s="5">
         <v>0.31090000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P88" s="5">
         <v>0.11360000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P89" s="5">
         <v>0.2077</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P90" s="5">
         <v>7.8600000000000003E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P91" s="5">
         <v>8.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P92" s="5">
         <v>0.1993</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P93" s="5">
         <v>0.3533</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P94" s="5">
         <v>0.123</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P95" s="5">
         <v>0.23710000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P96" s="5">
         <v>0.1774</v>
       </c>
     </row>
-    <row r="97" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P97" s="5">
         <v>0.31169999999999998</v>
       </c>
     </row>
-    <row r="98" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P98" s="5">
         <v>9.11E-2</v>
       </c>
     </row>
-    <row r="99" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P99" s="5">
         <v>0.20330000000000001</v>
       </c>
     </row>
-    <row r="100" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P100" s="5">
         <v>0.25530000000000003</v>
       </c>
     </row>
-    <row r="101" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P101" s="5">
         <v>0.31009999999999999</v>
       </c>
     </row>
-    <row r="102" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P102" s="5">
         <v>0.35439999999999999</v>
       </c>
     </row>
-    <row r="103" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P103" s="5">
         <v>0.20860000000000001</v>
       </c>
     </row>
-    <row r="104" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P104" s="5">
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="105" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P105" s="5">
         <v>0.1258</v>
       </c>
     </row>
-    <row r="106" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P106" s="5">
         <v>9.3799999999999994E-2</v>
       </c>
     </row>
-    <row r="107" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P107" s="5">
         <v>0.435</v>
       </c>
     </row>
-    <row r="108" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P108" s="5">
         <v>0.1384</v>
       </c>
     </row>
-    <row r="109" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P109" s="5">
         <v>0.27479999999999999</v>
       </c>
     </row>
-    <row r="110" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P110" s="5">
         <v>0.18079999999999999</v>
       </c>
     </row>
-    <row r="111" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P111" s="5">
         <v>0.28889999999999999</v>
       </c>
     </row>
-    <row r="112" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P112" s="5">
         <v>0.1235</v>
       </c>
     </row>
-    <row r="113" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P113" s="5">
         <v>5.9799999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P114" s="5">
         <v>5.7799999999999997E-2</v>
       </c>
     </row>
-    <row r="115" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P115" s="5">
         <v>0.24879999999999999</v>
       </c>
     </row>
-    <row r="116" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P116" s="5">
         <v>0.18229999999999999</v>
       </c>
     </row>
-    <row r="117" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P117" s="5">
         <v>0.1804</v>
       </c>
     </row>
-    <row r="118" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P118" s="5">
         <v>0.34189999999999998</v>
       </c>
     </row>
-    <row r="119" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P119" s="5">
         <v>0.22919999999999999</v>
       </c>
     </row>
-    <row r="120" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P120" s="5">
         <v>0.2198</v>
       </c>
     </row>
-    <row r="121" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P121" s="5">
         <v>0.35880000000000001</v>
       </c>
     </row>
-    <row r="122" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P122" s="5">
         <v>0.1196</v>
       </c>
     </row>
-    <row r="123" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P123" s="5">
         <v>0.2697</v>
       </c>
     </row>
-    <row r="124" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P124" s="5">
         <v>0.28349999999999997</v>
       </c>
     </row>
-    <row r="125" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P125" s="5">
         <v>0.17560000000000001</v>
       </c>
     </row>
-    <row r="126" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P126" s="5">
         <v>0.22159999999999999</v>
       </c>
     </row>
-    <row r="127" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P127" s="5">
         <v>8.3400000000000002E-2</v>
       </c>
     </row>
-    <row r="128" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P128" s="5">
         <v>8.5199999999999998E-2</v>
       </c>
     </row>
-    <row r="129" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P129" s="5">
         <v>0.21049999999999999</v>
       </c>
     </row>
-    <row r="130" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P130" s="5">
         <v>0.2722</v>
       </c>
     </row>
-    <row r="131" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P131" s="5">
         <v>0.45850000000000002</v>
       </c>
     </row>
-    <row r="132" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P132" s="5">
         <v>0.1333</v>
       </c>
     </row>
-    <row r="133" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P133" s="5">
         <v>0.21870000000000001</v>
       </c>
     </row>
-    <row r="134" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P134" s="5">
         <v>0.1918</v>
       </c>
     </row>
-    <row r="135" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P135" s="5">
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="136" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P136" s="5">
         <v>0.15609999999999999</v>
       </c>
     </row>
-    <row r="137" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P137" s="5">
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="138" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P138" s="5">
         <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="139" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P139" s="5">
         <v>0.11119999999999999</v>
       </c>
     </row>
-    <row r="140" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P140" s="5">
         <v>0.21</v>
       </c>
     </row>
-    <row r="141" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P141" s="5">
         <v>0.14549999999999999</v>
       </c>
     </row>
-    <row r="142" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P142" s="5">
         <v>0.23039999999999999</v>
       </c>
     </row>
-    <row r="143" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P143" s="5">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="144" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P144" s="5">
         <v>0.249</v>
       </c>
     </row>
-    <row r="145" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P145" s="5">
         <v>0.27389999999999998</v>
       </c>
     </row>
-    <row r="146" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P146" s="5">
         <v>0.37119999999999997</v>
       </c>
     </row>
-    <row r="147" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P147" s="5">
         <v>0.18060000000000001</v>
       </c>
     </row>
-    <row r="148" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P148" s="5">
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="149" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P149" s="5">
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="150" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P150" s="5">
         <v>0.33550000000000002</v>
       </c>
     </row>
-    <row r="151" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P151" s="5">
         <v>9.2799999999999994E-2</v>
       </c>
     </row>
-    <row r="152" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P152" s="5">
         <v>0.29609999999999997</v>
       </c>
     </row>
-    <row r="153" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P153" s="5">
         <v>0.21240000000000001</v>
       </c>
     </row>
-    <row r="154" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P154" s="5">
         <v>0.34370000000000001</v>
       </c>
     </row>
-    <row r="155" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P155" s="5">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="156" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P156" s="5">
         <v>0.1802</v>
       </c>
     </row>
-    <row r="157" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P157" s="5">
         <v>7.9200000000000007E-2</v>
       </c>
     </row>
-    <row r="158" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P158" s="5">
         <v>0.49080000000000001</v>
       </c>
     </row>
-    <row r="159" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P159" s="5">
         <v>0.28249999999999997</v>
       </c>
     </row>
-    <row r="160" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P160" s="5">
         <v>0.33789999999999998</v>
       </c>
     </row>
-    <row r="161" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P161" s="5">
         <v>9.4200000000000006E-2</v>
       </c>
     </row>
-    <row r="162" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P162" s="5">
         <v>0.15310000000000001</v>
       </c>
     </row>
-    <row r="163" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P163" s="5">
         <v>0.17280000000000001</v>
       </c>
     </row>
-    <row r="164" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P164" s="5">
         <v>0.30980000000000002</v>
       </c>
     </row>
-    <row r="165" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P165" s="5">
         <v>0.17219999999999999</v>
       </c>
     </row>
-    <row r="166" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P166" s="5">
         <v>0.2702</v>
       </c>
     </row>
-    <row r="167" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P167" s="5">
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="168" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P168" s="5">
         <v>0.1646</v>
       </c>
     </row>
-    <row r="169" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P169" s="5">
         <v>0.1176</v>
       </c>
     </row>
-    <row r="170" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P170" s="5">
         <v>4.2299999999999997E-2</v>
       </c>
     </row>
-    <row r="171" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P171" s="5">
         <v>0.25080000000000002</v>
       </c>
     </row>
-    <row r="172" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P172" s="5">
         <v>0.22819999999999999</v>
       </c>
     </row>
-    <row r="173" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P173" s="5">
         <v>0.20330000000000001</v>
       </c>
     </row>
-    <row r="174" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P174" s="5">
         <v>6.6600000000000006E-2</v>
       </c>
     </row>
-    <row r="175" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P175" s="5">
         <v>0.31269999999999998</v>
       </c>
     </row>
-    <row r="176" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P176" s="5">
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="177" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P177" s="5">
         <v>0.1701</v>
       </c>
     </row>
-    <row r="178" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P178" s="5">
         <v>0.20230000000000001</v>
       </c>
     </row>
-    <row r="179" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P179" s="5">
         <v>0.17380000000000001</v>
       </c>
     </row>
-    <row r="180" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P180" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="181" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P181" s="5">
         <v>0.1714</v>
       </c>
@@ -3154,18 +3152,18 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="5"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.44140625" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3187,7 +3185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>948</v>
       </c>
@@ -3208,7 +3206,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>207</v>
       </c>
@@ -3229,7 +3227,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11</v>
       </c>
@@ -3250,7 +3248,7 @@
         <v>0.1898</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1849</v>
       </c>
@@ -3268,7 +3266,7 @@
         <v>0.1759</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>57</v>
       </c>
@@ -3286,7 +3284,7 @@
         <v>0.2319</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>14</v>
       </c>
@@ -3305,7 +3303,7 @@
         <v>0.23130000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3324,7 +3322,7 @@
         <v>0.1135</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>463</v>
       </c>
@@ -3342,7 +3340,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3360,7 +3358,7 @@
         <v>0.1835</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -3378,7 +3376,7 @@
         <v>0.26279999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -3396,7 +3394,7 @@
         <v>0.30930000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3414,7 +3412,7 @@
         <v>0.31090000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -3432,7 +3430,7 @@
         <v>0.11360000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -3450,7 +3448,7 @@
         <v>0.2077</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
@@ -3465,7 +3463,7 @@
         <v>7.8600000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3473,7 +3471,7 @@
         <v>8.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -3481,7 +3479,7 @@
         <v>0.1993</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -3489,7 +3487,7 @@
         <v>0.3533</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -3497,7 +3495,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -3505,7 +3503,7 @@
         <v>0.23710000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -3513,7 +3511,7 @@
         <v>0.1774</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>157</v>
       </c>
@@ -3521,7 +3519,7 @@
         <v>0.31169999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1917</v>
       </c>
@@ -3529,7 +3527,7 @@
         <v>9.11E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
@@ -3537,7 +3535,7 @@
         <v>0.20330000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
@@ -3545,7 +3543,7 @@
         <v>0.25530000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -3553,7 +3551,7 @@
         <v>0.31009999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -3561,7 +3559,7 @@
         <v>0.35439999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -3569,7 +3567,7 @@
         <v>0.20860000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>862</v>
       </c>
@@ -3577,7 +3575,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>121</v>
       </c>
@@ -3585,7 +3583,7 @@
         <v>0.1258</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -3593,7 +3591,7 @@
         <v>9.3799999999999994E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2120</v>
       </c>
@@ -3601,7 +3599,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>28</v>
       </c>
@@ -3609,7 +3607,7 @@
         <v>0.1384</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -3617,7 +3615,7 @@
         <v>0.27479999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -3625,7 +3623,7 @@
         <v>0.18079999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-100</v>
       </c>
@@ -3633,7 +3631,7 @@
         <v>0.28889999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-100</v>
       </c>
@@ -3641,7 +3639,7 @@
         <v>0.25380000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-100</v>
       </c>
@@ -3649,7 +3647,7 @@
         <v>0.38340000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-100</v>
       </c>
@@ -3657,7 +3655,7 @@
         <v>2.5899999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-100</v>
       </c>
@@ -3665,7 +3663,7 @@
         <v>0.28620000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-100</v>
       </c>
@@ -3673,7 +3671,7 @@
         <v>0.2319</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-100</v>
       </c>
@@ -3681,7 +3679,7 @@
         <v>6.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>93</v>
       </c>
@@ -3689,7 +3687,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>395</v>
       </c>
@@ -3697,7 +3695,7 @@
         <v>0.23430000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0</v>
       </c>
@@ -3705,7 +3703,7 @@
         <v>0.55779999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>7</v>
       </c>
@@ -3713,7 +3711,7 @@
         <v>0.47689999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
@@ -3721,7 +3719,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0</v>
       </c>
@@ -3729,7 +3727,7 @@
         <v>0.50349999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0</v>
       </c>
@@ -3737,7 +3735,7 @@
         <v>0.27250000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-100</v>
       </c>
@@ -3745,7 +3743,7 @@
         <v>0.19370000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-100</v>
       </c>
@@ -3753,7 +3751,7 @@
         <v>0.27150000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-100</v>
       </c>
@@ -3761,7 +3759,7 @@
         <v>0.17949999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-100</v>
       </c>
@@ -3769,7 +3767,7 @@
         <v>0.18759999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-100</v>
       </c>
@@ -3777,7 +3775,7 @@
         <v>0.34899999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-100</v>
       </c>
@@ -3785,7 +3783,7 @@
         <v>0.34089999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-100</v>
       </c>
@@ -3793,7 +3791,7 @@
         <v>0.3417</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-100</v>
       </c>
@@ -3801,7 +3799,7 @@
         <v>0.2671</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-100</v>
       </c>
@@ -3809,7 +3807,7 @@
         <v>7.9299999999999995E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-100</v>
       </c>
@@ -3817,7 +3815,7 @@
         <v>0.2717</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-100</v>
       </c>
@@ -3825,7 +3823,7 @@
         <v>0.36299999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-100</v>
       </c>
@@ -3833,7 +3831,7 @@
         <v>0.24890000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-100</v>
       </c>
@@ -3841,7 +3839,7 @@
         <v>0.30349999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-100</v>
       </c>
@@ -3849,7 +3847,7 @@
         <v>0.2727</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-100</v>
       </c>
@@ -3857,7 +3855,7 @@
         <v>0.16969999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-100</v>
       </c>
@@ -3865,7 +3863,7 @@
         <v>0.22939999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-100</v>
       </c>
@@ -3873,7 +3871,7 @@
         <v>0.12130000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-100</v>
       </c>
@@ -3881,7 +3879,7 @@
         <v>0.2888</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-100</v>
       </c>
@@ -3889,7 +3887,7 @@
         <v>8.5300000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-100</v>
       </c>
@@ -3897,7 +3895,7 @@
         <v>9.3100000000000002E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-100</v>
       </c>
@@ -3905,7 +3903,7 @@
         <v>0.1191</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1065</v>
       </c>
@@ -3913,7 +3911,7 @@
         <v>9.4399999999999998E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>702</v>
       </c>
@@ -3921,7 +3919,7 @@
         <v>0.34379999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>36</v>
       </c>
@@ -3929,7 +3927,7 @@
         <v>0.23250000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>21</v>
       </c>
@@ -3937,7 +3935,7 @@
         <v>0.1245</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0</v>
       </c>
@@ -3945,7 +3943,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0</v>
       </c>
@@ -3953,7 +3951,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0</v>
       </c>
@@ -3961,7 +3959,7 @@
         <v>0.1898</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-100</v>
       </c>
@@ -3969,7 +3967,7 @@
         <v>0.1759</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-100</v>
       </c>
@@ -3977,7 +3975,7 @@
         <v>0.2319</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-100</v>
       </c>
@@ -3985,7 +3983,7 @@
         <v>0.23130000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-100</v>
       </c>
@@ -3993,7 +3991,7 @@
         <v>0.1135</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-100</v>
       </c>
@@ -4001,7 +3999,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-100</v>
       </c>
@@ -4009,7 +4007,7 @@
         <v>0.1835</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-100</v>
       </c>
@@ -4017,482 +4015,482 @@
         <v>0.26279999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P86" s="5">
         <v>0.30930000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P87" s="5">
         <v>0.31090000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P88" s="5">
         <v>0.11360000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P89" s="5">
         <v>0.2077</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P90" s="5">
         <v>7.8600000000000003E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P91" s="5">
         <v>8.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P92" s="5">
         <v>0.1993</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P93" s="5">
         <v>0.3533</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P94" s="5">
         <v>0.123</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P95" s="5">
         <v>0.23710000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P96" s="5">
         <v>0.1774</v>
       </c>
     </row>
-    <row r="97" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P97" s="5">
         <v>0.31169999999999998</v>
       </c>
     </row>
-    <row r="98" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P98" s="5">
         <v>9.11E-2</v>
       </c>
     </row>
-    <row r="99" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P99" s="5">
         <v>0.20330000000000001</v>
       </c>
     </row>
-    <row r="100" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P100" s="5">
         <v>0.25530000000000003</v>
       </c>
     </row>
-    <row r="101" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P101" s="5">
         <v>0.31009999999999999</v>
       </c>
     </row>
-    <row r="102" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P102" s="5">
         <v>0.35439999999999999</v>
       </c>
     </row>
-    <row r="103" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P103" s="5">
         <v>0.20860000000000001</v>
       </c>
     </row>
-    <row r="104" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P104" s="5">
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="105" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P105" s="5">
         <v>0.1258</v>
       </c>
     </row>
-    <row r="106" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P106" s="5">
         <v>9.3799999999999994E-2</v>
       </c>
     </row>
-    <row r="107" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P107" s="5">
         <v>0.435</v>
       </c>
     </row>
-    <row r="108" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P108" s="5">
         <v>0.1384</v>
       </c>
     </row>
-    <row r="109" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P109" s="5">
         <v>0.27479999999999999</v>
       </c>
     </row>
-    <row r="110" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P110" s="5">
         <v>0.18079999999999999</v>
       </c>
     </row>
-    <row r="111" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P111" s="5">
         <v>0.28889999999999999</v>
       </c>
     </row>
-    <row r="112" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P112" s="5">
         <v>0.1235</v>
       </c>
     </row>
-    <row r="113" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P113" s="5">
         <v>5.9799999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P114" s="5">
         <v>5.7799999999999997E-2</v>
       </c>
     </row>
-    <row r="115" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P115" s="5">
         <v>0.24879999999999999</v>
       </c>
     </row>
-    <row r="116" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P116" s="5">
         <v>0.18229999999999999</v>
       </c>
     </row>
-    <row r="117" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P117" s="5">
         <v>0.1804</v>
       </c>
     </row>
-    <row r="118" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P118" s="5">
         <v>0.34189999999999998</v>
       </c>
     </row>
-    <row r="119" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P119" s="5">
         <v>0.22919999999999999</v>
       </c>
     </row>
-    <row r="120" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P120" s="5">
         <v>0.2198</v>
       </c>
     </row>
-    <row r="121" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P121" s="5">
         <v>0.35880000000000001</v>
       </c>
     </row>
-    <row r="122" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P122" s="5">
         <v>0.1196</v>
       </c>
     </row>
-    <row r="123" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P123" s="5">
         <v>0.2697</v>
       </c>
     </row>
-    <row r="124" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P124" s="5">
         <v>0.28349999999999997</v>
       </c>
     </row>
-    <row r="125" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P125" s="5">
         <v>0.17560000000000001</v>
       </c>
     </row>
-    <row r="126" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P126" s="5">
         <v>0.22159999999999999</v>
       </c>
     </row>
-    <row r="127" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P127" s="5">
         <v>8.3400000000000002E-2</v>
       </c>
     </row>
-    <row r="128" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P128" s="5">
         <v>8.5199999999999998E-2</v>
       </c>
     </row>
-    <row r="129" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P129" s="5">
         <v>0.21049999999999999</v>
       </c>
     </row>
-    <row r="130" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P130" s="5">
         <v>0.2722</v>
       </c>
     </row>
-    <row r="131" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P131" s="5">
         <v>0.45850000000000002</v>
       </c>
     </row>
-    <row r="132" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P132" s="5">
         <v>0.1333</v>
       </c>
     </row>
-    <row r="133" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P133" s="5">
         <v>0.21870000000000001</v>
       </c>
     </row>
-    <row r="134" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P134" s="5">
         <v>0.1918</v>
       </c>
     </row>
-    <row r="135" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P135" s="5">
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="136" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P136" s="5">
         <v>0.15609999999999999</v>
       </c>
     </row>
-    <row r="137" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P137" s="5">
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="138" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P138" s="5">
         <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="139" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P139" s="5">
         <v>0.11119999999999999</v>
       </c>
     </row>
-    <row r="140" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P140" s="5">
         <v>0.21</v>
       </c>
     </row>
-    <row r="141" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P141" s="5">
         <v>0.14549999999999999</v>
       </c>
     </row>
-    <row r="142" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P142" s="5">
         <v>0.23039999999999999</v>
       </c>
     </row>
-    <row r="143" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P143" s="5">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="144" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P144" s="5">
         <v>0.249</v>
       </c>
     </row>
-    <row r="145" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P145" s="5">
         <v>0.27389999999999998</v>
       </c>
     </row>
-    <row r="146" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P146" s="5">
         <v>0.37119999999999997</v>
       </c>
     </row>
-    <row r="147" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P147" s="5">
         <v>0.18060000000000001</v>
       </c>
     </row>
-    <row r="148" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P148" s="5">
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="149" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P149" s="5">
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="150" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P150" s="5">
         <v>0.33550000000000002</v>
       </c>
     </row>
-    <row r="151" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P151" s="5">
         <v>9.2799999999999994E-2</v>
       </c>
     </row>
-    <row r="152" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P152" s="5">
         <v>0.29609999999999997</v>
       </c>
     </row>
-    <row r="153" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P153" s="5">
         <v>0.21240000000000001</v>
       </c>
     </row>
-    <row r="154" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P154" s="5">
         <v>0.34370000000000001</v>
       </c>
     </row>
-    <row r="155" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P155" s="5">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="156" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P156" s="5">
         <v>0.1802</v>
       </c>
     </row>
-    <row r="157" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P157" s="5">
         <v>7.9200000000000007E-2</v>
       </c>
     </row>
-    <row r="158" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P158" s="5">
         <v>0.49080000000000001</v>
       </c>
     </row>
-    <row r="159" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P159" s="5">
         <v>0.28249999999999997</v>
       </c>
     </row>
-    <row r="160" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P160" s="5">
         <v>0.33789999999999998</v>
       </c>
     </row>
-    <row r="161" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P161" s="5">
         <v>9.4200000000000006E-2</v>
       </c>
     </row>
-    <row r="162" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P162" s="5">
         <v>0.15310000000000001</v>
       </c>
     </row>
-    <row r="163" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P163" s="5">
         <v>0.17280000000000001</v>
       </c>
     </row>
-    <row r="164" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P164" s="5">
         <v>0.30980000000000002</v>
       </c>
     </row>
-    <row r="165" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P165" s="5">
         <v>0.17219999999999999</v>
       </c>
     </row>
-    <row r="166" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P166" s="5">
         <v>0.2702</v>
       </c>
     </row>
-    <row r="167" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P167" s="5">
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="168" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P168" s="5">
         <v>0.1646</v>
       </c>
     </row>
-    <row r="169" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P169" s="5">
         <v>0.1176</v>
       </c>
     </row>
-    <row r="170" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P170" s="5">
         <v>4.2299999999999997E-2</v>
       </c>
     </row>
-    <row r="171" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P171" s="5">
         <v>0.25080000000000002</v>
       </c>
     </row>
-    <row r="172" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P172" s="5">
         <v>0.22819999999999999</v>
       </c>
     </row>
-    <row r="173" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P173" s="5">
         <v>0.20330000000000001</v>
       </c>
     </row>
-    <row r="174" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P174" s="5">
         <v>6.6600000000000006E-2</v>
       </c>
     </row>
-    <row r="175" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P175" s="5">
         <v>0.31269999999999998</v>
       </c>
     </row>
-    <row r="176" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P176" s="5">
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="177" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P177" s="5">
         <v>0.1701</v>
       </c>
     </row>
-    <row r="178" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P178" s="5">
         <v>0.20230000000000001</v>
       </c>
     </row>
-    <row r="179" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P179" s="5">
         <v>0.17380000000000001</v>
       </c>
     </row>
-    <row r="180" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P180" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="181" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P181" s="5">
         <v>0.1714</v>
       </c>
@@ -4511,18 +4509,18 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="5"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.44140625" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4544,7 +4542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>531</v>
       </c>
@@ -4565,7 +4563,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>249</v>
       </c>
@@ -4586,7 +4584,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>36</v>
       </c>
@@ -4607,7 +4605,7 @@
         <v>0.1898</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2672</v>
       </c>
@@ -4625,7 +4623,7 @@
         <v>0.1759</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>82</v>
       </c>
@@ -4643,7 +4641,7 @@
         <v>0.2319</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>46</v>
       </c>
@@ -4662,7 +4660,7 @@
         <v>0.23130000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -4681,7 +4679,7 @@
         <v>0.1135</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>367</v>
       </c>
@@ -4699,7 +4697,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -4717,7 +4715,7 @@
         <v>0.1835</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -4735,7 +4733,7 @@
         <v>0.26279999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>14</v>
       </c>
@@ -4753,7 +4751,7 @@
         <v>0.30930000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>39</v>
       </c>
@@ -4771,7 +4769,7 @@
         <v>0.31090000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -4789,7 +4787,7 @@
         <v>0.11360000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -4807,7 +4805,7 @@
         <v>0.2077</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>36</v>
       </c>
@@ -4822,7 +4820,7 @@
         <v>7.8600000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>107</v>
       </c>
@@ -4830,7 +4828,7 @@
         <v>8.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -4838,7 +4836,7 @@
         <v>0.1993</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -4846,7 +4844,7 @@
         <v>0.3533</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -4854,7 +4852,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -4862,7 +4860,7 @@
         <v>0.23710000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -4870,7 +4868,7 @@
         <v>0.1774</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>388</v>
       </c>
@@ -4878,7 +4876,7 @@
         <v>0.31169999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3762</v>
       </c>
@@ -4886,7 +4884,7 @@
         <v>9.11E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>43</v>
       </c>
@@ -4894,7 +4892,7 @@
         <v>0.20330000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -4902,7 +4900,7 @@
         <v>0.25530000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -4910,7 +4908,7 @@
         <v>0.31009999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -4918,7 +4916,7 @@
         <v>0.35439999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -4926,7 +4924,7 @@
         <v>0.20860000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>584</v>
       </c>
@@ -4934,7 +4932,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>11</v>
       </c>
@@ -4942,7 +4940,7 @@
         <v>0.1258</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -4950,7 +4948,7 @@
         <v>9.3799999999999994E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1902</v>
       </c>
@@ -4958,7 +4956,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>36</v>
       </c>
@@ -4966,7 +4964,7 @@
         <v>0.1384</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -4974,7 +4972,7 @@
         <v>0.27479999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -4982,7 +4980,7 @@
         <v>0.18079999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-100</v>
       </c>
@@ -4990,7 +4988,7 @@
         <v>0.28889999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-100</v>
       </c>
@@ -4998,7 +4996,7 @@
         <v>0.25380000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-100</v>
       </c>
@@ -5006,7 +5004,7 @@
         <v>0.38340000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-100</v>
       </c>
@@ -5014,7 +5012,7 @@
         <v>2.5899999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-100</v>
       </c>
@@ -5022,7 +5020,7 @@
         <v>0.28620000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-100</v>
       </c>
@@ -5030,7 +5028,7 @@
         <v>0.2319</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-100</v>
       </c>
@@ -5038,7 +5036,7 @@
         <v>6.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>75</v>
       </c>
@@ -5046,7 +5044,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>342</v>
       </c>
@@ -5054,7 +5052,7 @@
         <v>0.23430000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0</v>
       </c>
@@ -5062,7 +5060,7 @@
         <v>0.55779999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>7</v>
       </c>
@@ -5070,7 +5068,7 @@
         <v>0.47689999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
@@ -5078,7 +5076,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
@@ -5086,7 +5084,7 @@
         <v>0.50349999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0</v>
       </c>
@@ -5094,7 +5092,7 @@
         <v>0.27250000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-100</v>
       </c>
@@ -5102,7 +5100,7 @@
         <v>0.19370000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-100</v>
       </c>
@@ -5110,7 +5108,7 @@
         <v>0.27150000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-100</v>
       </c>
@@ -5118,7 +5116,7 @@
         <v>0.17949999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-100</v>
       </c>
@@ -5126,7 +5124,7 @@
         <v>0.18759999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-100</v>
       </c>
@@ -5134,7 +5132,7 @@
         <v>0.34899999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-100</v>
       </c>
@@ -5142,7 +5140,7 @@
         <v>0.34089999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-100</v>
       </c>
@@ -5150,7 +5148,7 @@
         <v>0.3417</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-100</v>
       </c>
@@ -5158,7 +5156,7 @@
         <v>0.2671</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-100</v>
       </c>
@@ -5166,7 +5164,7 @@
         <v>7.9299999999999995E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-100</v>
       </c>
@@ -5174,7 +5172,7 @@
         <v>0.2717</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-100</v>
       </c>
@@ -5182,7 +5180,7 @@
         <v>0.36299999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-100</v>
       </c>
@@ -5190,7 +5188,7 @@
         <v>0.24890000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-100</v>
       </c>
@@ -5198,7 +5196,7 @@
         <v>0.30349999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-100</v>
       </c>
@@ -5206,7 +5204,7 @@
         <v>0.2727</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-100</v>
       </c>
@@ -5214,7 +5212,7 @@
         <v>0.16969999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-100</v>
       </c>
@@ -5222,7 +5220,7 @@
         <v>0.22939999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-100</v>
       </c>
@@ -5230,7 +5228,7 @@
         <v>0.12130000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-100</v>
       </c>
@@ -5238,7 +5236,7 @@
         <v>0.2888</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-100</v>
       </c>
@@ -5246,7 +5244,7 @@
         <v>8.5300000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-100</v>
       </c>
@@ -5254,7 +5252,7 @@
         <v>9.3100000000000002E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-100</v>
       </c>
@@ -5262,7 +5260,7 @@
         <v>0.1191</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>627</v>
       </c>
@@ -5270,7 +5268,7 @@
         <v>9.4399999999999998E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1471</v>
       </c>
@@ -5278,7 +5276,7 @@
         <v>0.34379999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>150</v>
       </c>
@@ -5286,7 +5284,7 @@
         <v>0.23250000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>85</v>
       </c>
@@ -5294,7 +5292,7 @@
         <v>0.1245</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>18</v>
       </c>
@@ -5302,7 +5300,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>11</v>
       </c>
@@ -5310,7 +5308,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0</v>
       </c>
@@ -5318,7 +5316,7 @@
         <v>0.1898</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-100</v>
       </c>
@@ -5326,7 +5324,7 @@
         <v>0.1759</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-100</v>
       </c>
@@ -5334,7 +5332,7 @@
         <v>0.2319</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-100</v>
       </c>
@@ -5342,7 +5340,7 @@
         <v>0.23130000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-100</v>
       </c>
@@ -5350,7 +5348,7 @@
         <v>0.1135</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-100</v>
       </c>
@@ -5358,7 +5356,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-100</v>
       </c>
@@ -5366,7 +5364,7 @@
         <v>0.1835</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-100</v>
       </c>
@@ -5374,482 +5372,482 @@
         <v>0.26279999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P86" s="5">
         <v>0.30930000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P87" s="5">
         <v>0.31090000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P88" s="5">
         <v>0.11360000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P89" s="5">
         <v>0.2077</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P90" s="5">
         <v>7.8600000000000003E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P91" s="5">
         <v>8.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P92" s="5">
         <v>0.1993</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P93" s="5">
         <v>0.3533</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P94" s="5">
         <v>0.123</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P95" s="5">
         <v>0.23710000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P96" s="5">
         <v>0.1774</v>
       </c>
     </row>
-    <row r="97" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P97" s="5">
         <v>0.31169999999999998</v>
       </c>
     </row>
-    <row r="98" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P98" s="5">
         <v>9.11E-2</v>
       </c>
     </row>
-    <row r="99" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P99" s="5">
         <v>0.20330000000000001</v>
       </c>
     </row>
-    <row r="100" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P100" s="5">
         <v>0.25530000000000003</v>
       </c>
     </row>
-    <row r="101" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P101" s="5">
         <v>0.31009999999999999</v>
       </c>
     </row>
-    <row r="102" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P102" s="5">
         <v>0.35439999999999999</v>
       </c>
     </row>
-    <row r="103" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P103" s="5">
         <v>0.20860000000000001</v>
       </c>
     </row>
-    <row r="104" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P104" s="5">
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="105" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P105" s="5">
         <v>0.1258</v>
       </c>
     </row>
-    <row r="106" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P106" s="5">
         <v>9.3799999999999994E-2</v>
       </c>
     </row>
-    <row r="107" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P107" s="5">
         <v>0.435</v>
       </c>
     </row>
-    <row r="108" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P108" s="5">
         <v>0.1384</v>
       </c>
     </row>
-    <row r="109" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P109" s="5">
         <v>0.27479999999999999</v>
       </c>
     </row>
-    <row r="110" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P110" s="5">
         <v>0.18079999999999999</v>
       </c>
     </row>
-    <row r="111" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P111" s="5">
         <v>0.28889999999999999</v>
       </c>
     </row>
-    <row r="112" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P112" s="5">
         <v>0.1235</v>
       </c>
     </row>
-    <row r="113" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P113" s="5">
         <v>5.9799999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P114" s="5">
         <v>5.7799999999999997E-2</v>
       </c>
     </row>
-    <row r="115" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P115" s="5">
         <v>0.24879999999999999</v>
       </c>
     </row>
-    <row r="116" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P116" s="5">
         <v>0.18229999999999999</v>
       </c>
     </row>
-    <row r="117" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P117" s="5">
         <v>0.1804</v>
       </c>
     </row>
-    <row r="118" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P118" s="5">
         <v>0.34189999999999998</v>
       </c>
     </row>
-    <row r="119" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P119" s="5">
         <v>0.22919999999999999</v>
       </c>
     </row>
-    <row r="120" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P120" s="5">
         <v>0.2198</v>
       </c>
     </row>
-    <row r="121" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P121" s="5">
         <v>0.35880000000000001</v>
       </c>
     </row>
-    <row r="122" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P122" s="5">
         <v>0.1196</v>
       </c>
     </row>
-    <row r="123" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P123" s="5">
         <v>0.2697</v>
       </c>
     </row>
-    <row r="124" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P124" s="5">
         <v>0.28349999999999997</v>
       </c>
     </row>
-    <row r="125" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P125" s="5">
         <v>0.17560000000000001</v>
       </c>
     </row>
-    <row r="126" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P126" s="5">
         <v>0.22159999999999999</v>
       </c>
     </row>
-    <row r="127" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P127" s="5">
         <v>8.3400000000000002E-2</v>
       </c>
     </row>
-    <row r="128" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P128" s="5">
         <v>8.5199999999999998E-2</v>
       </c>
     </row>
-    <row r="129" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P129" s="5">
         <v>0.21049999999999999</v>
       </c>
     </row>
-    <row r="130" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P130" s="5">
         <v>0.2722</v>
       </c>
     </row>
-    <row r="131" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P131" s="5">
         <v>0.45850000000000002</v>
       </c>
     </row>
-    <row r="132" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P132" s="5">
         <v>0.1333</v>
       </c>
     </row>
-    <row r="133" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P133" s="5">
         <v>0.21870000000000001</v>
       </c>
     </row>
-    <row r="134" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P134" s="5">
         <v>0.1918</v>
       </c>
     </row>
-    <row r="135" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P135" s="5">
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="136" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P136" s="5">
         <v>0.15609999999999999</v>
       </c>
     </row>
-    <row r="137" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P137" s="5">
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="138" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P138" s="5">
         <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="139" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P139" s="5">
         <v>0.11119999999999999</v>
       </c>
     </row>
-    <row r="140" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P140" s="5">
         <v>0.21</v>
       </c>
     </row>
-    <row r="141" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P141" s="5">
         <v>0.14549999999999999</v>
       </c>
     </row>
-    <row r="142" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P142" s="5">
         <v>0.23039999999999999</v>
       </c>
     </row>
-    <row r="143" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P143" s="5">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="144" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P144" s="5">
         <v>0.249</v>
       </c>
     </row>
-    <row r="145" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P145" s="5">
         <v>0.27389999999999998</v>
       </c>
     </row>
-    <row r="146" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P146" s="5">
         <v>0.37119999999999997</v>
       </c>
     </row>
-    <row r="147" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P147" s="5">
         <v>0.18060000000000001</v>
       </c>
     </row>
-    <row r="148" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P148" s="5">
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="149" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P149" s="5">
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="150" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P150" s="5">
         <v>0.33550000000000002</v>
       </c>
     </row>
-    <row r="151" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P151" s="5">
         <v>9.2799999999999994E-2</v>
       </c>
     </row>
-    <row r="152" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P152" s="5">
         <v>0.29609999999999997</v>
       </c>
     </row>
-    <row r="153" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P153" s="5">
         <v>0.21240000000000001</v>
       </c>
     </row>
-    <row r="154" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P154" s="5">
         <v>0.34370000000000001</v>
       </c>
     </row>
-    <row r="155" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P155" s="5">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="156" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P156" s="5">
         <v>0.1802</v>
       </c>
     </row>
-    <row r="157" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P157" s="5">
         <v>7.9200000000000007E-2</v>
       </c>
     </row>
-    <row r="158" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P158" s="5">
         <v>0.49080000000000001</v>
       </c>
     </row>
-    <row r="159" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P159" s="5">
         <v>0.28249999999999997</v>
       </c>
     </row>
-    <row r="160" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P160" s="5">
         <v>0.33789999999999998</v>
       </c>
     </row>
-    <row r="161" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P161" s="5">
         <v>9.4200000000000006E-2</v>
       </c>
     </row>
-    <row r="162" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P162" s="5">
         <v>0.15310000000000001</v>
       </c>
     </row>
-    <row r="163" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P163" s="5">
         <v>0.17280000000000001</v>
       </c>
     </row>
-    <row r="164" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P164" s="5">
         <v>0.30980000000000002</v>
       </c>
     </row>
-    <row r="165" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P165" s="5">
         <v>0.17219999999999999</v>
       </c>
     </row>
-    <row r="166" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P166" s="5">
         <v>0.2702</v>
       </c>
     </row>
-    <row r="167" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P167" s="5">
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="168" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P168" s="5">
         <v>0.1646</v>
       </c>
     </row>
-    <row r="169" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P169" s="5">
         <v>0.1176</v>
       </c>
     </row>
-    <row r="170" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P170" s="5">
         <v>4.2299999999999997E-2</v>
       </c>
     </row>
-    <row r="171" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P171" s="5">
         <v>0.25080000000000002</v>
       </c>
     </row>
-    <row r="172" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P172" s="5">
         <v>0.22819999999999999</v>
       </c>
     </row>
-    <row r="173" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P173" s="5">
         <v>0.20330000000000001</v>
       </c>
     </row>
-    <row r="174" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P174" s="5">
         <v>6.6600000000000006E-2</v>
       </c>
     </row>
-    <row r="175" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P175" s="5">
         <v>0.31269999999999998</v>
       </c>
     </row>
-    <row r="176" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P176" s="5">
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="177" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P177" s="5">
         <v>0.1701</v>
       </c>
     </row>
-    <row r="178" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P178" s="5">
         <v>0.20230000000000001</v>
       </c>
     </row>
-    <row r="179" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P179" s="5">
         <v>0.17380000000000001</v>
       </c>
     </row>
-    <row r="180" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P180" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="181" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P181" s="5">
         <v>0.1714</v>
       </c>
@@ -5868,18 +5866,18 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="5"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.44140625" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5901,7 +5899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>563</v>
       </c>
@@ -5922,7 +5920,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>403</v>
       </c>
@@ -5943,7 +5941,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
@@ -5964,7 +5962,7 @@
         <v>0.1898</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1856</v>
       </c>
@@ -5982,7 +5980,7 @@
         <v>0.1759</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>178</v>
       </c>
@@ -6000,7 +5998,7 @@
         <v>0.2319</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>132</v>
       </c>
@@ -6019,7 +6017,7 @@
         <v>0.23130000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6038,7 +6036,7 @@
         <v>0.1135</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>328</v>
       </c>
@@ -6056,7 +6054,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -6074,7 +6072,7 @@
         <v>0.1835</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -6092,7 +6090,7 @@
         <v>0.26279999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -6110,7 +6108,7 @@
         <v>0.30930000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>28</v>
       </c>
@@ -6128,7 +6126,7 @@
         <v>0.31090000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -6146,7 +6144,7 @@
         <v>0.11360000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -6164,7 +6162,7 @@
         <v>0.2077</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>171</v>
       </c>
@@ -6179,7 +6177,7 @@
         <v>7.8600000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>114</v>
       </c>
@@ -6187,7 +6185,7 @@
         <v>8.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -6195,7 +6193,7 @@
         <v>0.1993</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>46</v>
       </c>
@@ -6203,7 +6201,7 @@
         <v>0.3533</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -6211,7 +6209,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -6219,7 +6217,7 @@
         <v>0.23710000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -6227,7 +6225,7 @@
         <v>0.1774</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>477</v>
       </c>
@@ -6235,7 +6233,7 @@
         <v>0.31169999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>470</v>
       </c>
@@ -6243,7 +6241,7 @@
         <v>9.11E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -6251,7 +6249,7 @@
         <v>0.20330000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -6259,7 +6257,7 @@
         <v>0.25530000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -6267,7 +6265,7 @@
         <v>0.31009999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -6275,7 +6273,7 @@
         <v>0.35439999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -6283,7 +6281,7 @@
         <v>0.20860000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>563</v>
       </c>
@@ -6291,7 +6289,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7</v>
       </c>
@@ -6299,7 +6297,7 @@
         <v>0.1258</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -6307,7 +6305,7 @@
         <v>9.3799999999999994E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1453</v>
       </c>
@@ -6315,7 +6313,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>25</v>
       </c>
@@ -6323,7 +6321,7 @@
         <v>0.1384</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -6331,7 +6329,7 @@
         <v>0.27479999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -6339,7 +6337,7 @@
         <v>0.18079999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-100</v>
       </c>
@@ -6347,7 +6345,7 @@
         <v>0.28889999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-100</v>
       </c>
@@ -6355,7 +6353,7 @@
         <v>0.25380000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-100</v>
       </c>
@@ -6363,7 +6361,7 @@
         <v>0.38340000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-100</v>
       </c>
@@ -6371,7 +6369,7 @@
         <v>2.5899999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-100</v>
       </c>
@@ -6379,7 +6377,7 @@
         <v>0.28620000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-100</v>
       </c>
@@ -6387,7 +6385,7 @@
         <v>0.2319</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-100</v>
       </c>
@@ -6395,7 +6393,7 @@
         <v>6.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>199</v>
       </c>
@@ -6403,7 +6401,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>410</v>
       </c>
@@ -6411,7 +6409,7 @@
         <v>0.23430000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -6419,7 +6417,7 @@
         <v>0.55779999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>50</v>
       </c>
@@ -6427,7 +6425,7 @@
         <v>0.47689999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
@@ -6435,7 +6433,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>21</v>
       </c>
@@ -6443,7 +6441,7 @@
         <v>0.50349999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0</v>
       </c>
@@ -6451,7 +6449,7 @@
         <v>0.27250000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-100</v>
       </c>
@@ -6459,7 +6457,7 @@
         <v>0.19370000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-100</v>
       </c>
@@ -6467,7 +6465,7 @@
         <v>0.27150000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-100</v>
       </c>
@@ -6475,7 +6473,7 @@
         <v>0.17949999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-100</v>
       </c>
@@ -6483,7 +6481,7 @@
         <v>0.18759999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-100</v>
       </c>
@@ -6491,7 +6489,7 @@
         <v>0.34899999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-100</v>
       </c>
@@ -6499,7 +6497,7 @@
         <v>0.34089999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-100</v>
       </c>
@@ -6507,7 +6505,7 @@
         <v>0.3417</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-100</v>
       </c>
@@ -6515,7 +6513,7 @@
         <v>0.2671</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-100</v>
       </c>
@@ -6523,7 +6521,7 @@
         <v>7.9299999999999995E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-100</v>
       </c>
@@ -6531,7 +6529,7 @@
         <v>0.2717</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-100</v>
       </c>
@@ -6539,7 +6537,7 @@
         <v>0.36299999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-100</v>
       </c>
@@ -6547,7 +6545,7 @@
         <v>0.24890000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-100</v>
       </c>
@@ -6555,7 +6553,7 @@
         <v>0.30349999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-100</v>
       </c>
@@ -6563,7 +6561,7 @@
         <v>0.2727</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-100</v>
       </c>
@@ -6571,7 +6569,7 @@
         <v>0.16969999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-100</v>
       </c>
@@ -6579,7 +6577,7 @@
         <v>0.22939999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-100</v>
       </c>
@@ -6587,7 +6585,7 @@
         <v>0.12130000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-100</v>
       </c>
@@ -6595,7 +6593,7 @@
         <v>0.2888</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-100</v>
       </c>
@@ -6603,7 +6601,7 @@
         <v>8.5300000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-100</v>
       </c>
@@ -6611,7 +6609,7 @@
         <v>9.3100000000000002E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-100</v>
       </c>
@@ -6619,7 +6617,7 @@
         <v>0.1191</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>477</v>
       </c>
@@ -6627,7 +6625,7 @@
         <v>9.4399999999999998E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>859</v>
       </c>
@@ -6635,7 +6633,7 @@
         <v>0.34379999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>57</v>
       </c>
@@ -6643,7 +6641,7 @@
         <v>0.23250000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>502</v>
       </c>
@@ -6651,7 +6649,7 @@
         <v>0.1245</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>21</v>
       </c>
@@ -6659,7 +6657,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>178</v>
       </c>
@@ -6667,7 +6665,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0</v>
       </c>
@@ -6675,7 +6673,7 @@
         <v>0.1898</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-100</v>
       </c>
@@ -6683,7 +6681,7 @@
         <v>0.1759</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-100</v>
       </c>
@@ -6691,7 +6689,7 @@
         <v>0.2319</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-100</v>
       </c>
@@ -6699,7 +6697,7 @@
         <v>0.23130000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-100</v>
       </c>
@@ -6707,7 +6705,7 @@
         <v>0.1135</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-100</v>
       </c>
@@ -6715,7 +6713,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-100</v>
       </c>
@@ -6723,7 +6721,7 @@
         <v>0.1835</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-100</v>
       </c>
@@ -6731,482 +6729,482 @@
         <v>0.26279999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P86" s="5">
         <v>0.30930000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P87" s="5">
         <v>0.31090000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P88" s="5">
         <v>0.11360000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P89" s="5">
         <v>0.2077</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P90" s="5">
         <v>7.8600000000000003E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P91" s="5">
         <v>8.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P92" s="5">
         <v>0.1993</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P93" s="5">
         <v>0.3533</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P94" s="5">
         <v>0.123</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P95" s="5">
         <v>0.23710000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P96" s="5">
         <v>0.1774</v>
       </c>
     </row>
-    <row r="97" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P97" s="5">
         <v>0.31169999999999998</v>
       </c>
     </row>
-    <row r="98" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P98" s="5">
         <v>9.11E-2</v>
       </c>
     </row>
-    <row r="99" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P99" s="5">
         <v>0.20330000000000001</v>
       </c>
     </row>
-    <row r="100" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P100" s="5">
         <v>0.25530000000000003</v>
       </c>
     </row>
-    <row r="101" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P101" s="5">
         <v>0.31009999999999999</v>
       </c>
     </row>
-    <row r="102" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P102" s="5">
         <v>0.35439999999999999</v>
       </c>
     </row>
-    <row r="103" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P103" s="5">
         <v>0.20860000000000001</v>
       </c>
     </row>
-    <row r="104" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P104" s="5">
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="105" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P105" s="5">
         <v>0.1258</v>
       </c>
     </row>
-    <row r="106" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P106" s="5">
         <v>9.3799999999999994E-2</v>
       </c>
     </row>
-    <row r="107" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P107" s="5">
         <v>0.435</v>
       </c>
     </row>
-    <row r="108" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P108" s="5">
         <v>0.1384</v>
       </c>
     </row>
-    <row r="109" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P109" s="5">
         <v>0.27479999999999999</v>
       </c>
     </row>
-    <row r="110" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P110" s="5">
         <v>0.18079999999999999</v>
       </c>
     </row>
-    <row r="111" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P111" s="5">
         <v>0.28889999999999999</v>
       </c>
     </row>
-    <row r="112" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P112" s="5">
         <v>0.1235</v>
       </c>
     </row>
-    <row r="113" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P113" s="5">
         <v>5.9799999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P114" s="5">
         <v>5.7799999999999997E-2</v>
       </c>
     </row>
-    <row r="115" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P115" s="5">
         <v>0.24879999999999999</v>
       </c>
     </row>
-    <row r="116" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P116" s="5">
         <v>0.18229999999999999</v>
       </c>
     </row>
-    <row r="117" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P117" s="5">
         <v>0.1804</v>
       </c>
     </row>
-    <row r="118" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P118" s="5">
         <v>0.34189999999999998</v>
       </c>
     </row>
-    <row r="119" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P119" s="5">
         <v>0.22919999999999999</v>
       </c>
     </row>
-    <row r="120" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P120" s="5">
         <v>0.2198</v>
       </c>
     </row>
-    <row r="121" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P121" s="5">
         <v>0.35880000000000001</v>
       </c>
     </row>
-    <row r="122" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P122" s="5">
         <v>0.1196</v>
       </c>
     </row>
-    <row r="123" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P123" s="5">
         <v>0.2697</v>
       </c>
     </row>
-    <row r="124" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P124" s="5">
         <v>0.28349999999999997</v>
       </c>
     </row>
-    <row r="125" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P125" s="5">
         <v>0.17560000000000001</v>
       </c>
     </row>
-    <row r="126" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P126" s="5">
         <v>0.22159999999999999</v>
       </c>
     </row>
-    <row r="127" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P127" s="5">
         <v>8.3400000000000002E-2</v>
       </c>
     </row>
-    <row r="128" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P128" s="5">
         <v>8.5199999999999998E-2</v>
       </c>
     </row>
-    <row r="129" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P129" s="5">
         <v>0.21049999999999999</v>
       </c>
     </row>
-    <row r="130" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P130" s="5">
         <v>0.2722</v>
       </c>
     </row>
-    <row r="131" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P131" s="5">
         <v>0.45850000000000002</v>
       </c>
     </row>
-    <row r="132" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P132" s="5">
         <v>0.1333</v>
       </c>
     </row>
-    <row r="133" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P133" s="5">
         <v>0.21870000000000001</v>
       </c>
     </row>
-    <row r="134" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P134" s="5">
         <v>0.1918</v>
       </c>
     </row>
-    <row r="135" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P135" s="5">
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="136" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P136" s="5">
         <v>0.15609999999999999</v>
       </c>
     </row>
-    <row r="137" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P137" s="5">
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="138" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P138" s="5">
         <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="139" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P139" s="5">
         <v>0.11119999999999999</v>
       </c>
     </row>
-    <row r="140" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P140" s="5">
         <v>0.21</v>
       </c>
     </row>
-    <row r="141" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P141" s="5">
         <v>0.14549999999999999</v>
       </c>
     </row>
-    <row r="142" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P142" s="5">
         <v>0.23039999999999999</v>
       </c>
     </row>
-    <row r="143" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P143" s="5">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="144" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P144" s="5">
         <v>0.249</v>
       </c>
     </row>
-    <row r="145" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P145" s="5">
         <v>0.27389999999999998</v>
       </c>
     </row>
-    <row r="146" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P146" s="5">
         <v>0.37119999999999997</v>
       </c>
     </row>
-    <row r="147" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P147" s="5">
         <v>0.18060000000000001</v>
       </c>
     </row>
-    <row r="148" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P148" s="5">
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="149" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P149" s="5">
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="150" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P150" s="5">
         <v>0.33550000000000002</v>
       </c>
     </row>
-    <row r="151" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P151" s="5">
         <v>9.2799999999999994E-2</v>
       </c>
     </row>
-    <row r="152" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P152" s="5">
         <v>0.29609999999999997</v>
       </c>
     </row>
-    <row r="153" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P153" s="5">
         <v>0.21240000000000001</v>
       </c>
     </row>
-    <row r="154" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P154" s="5">
         <v>0.34370000000000001</v>
       </c>
     </row>
-    <row r="155" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P155" s="5">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="156" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P156" s="5">
         <v>0.1802</v>
       </c>
     </row>
-    <row r="157" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P157" s="5">
         <v>7.9200000000000007E-2</v>
       </c>
     </row>
-    <row r="158" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P158" s="5">
         <v>0.49080000000000001</v>
       </c>
     </row>
-    <row r="159" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P159" s="5">
         <v>0.28249999999999997</v>
       </c>
     </row>
-    <row r="160" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P160" s="5">
         <v>0.33789999999999998</v>
       </c>
     </row>
-    <row r="161" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P161" s="5">
         <v>9.4200000000000006E-2</v>
       </c>
     </row>
-    <row r="162" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P162" s="5">
         <v>0.15310000000000001</v>
       </c>
     </row>
-    <row r="163" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P163" s="5">
         <v>0.17280000000000001</v>
       </c>
     </row>
-    <row r="164" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P164" s="5">
         <v>0.30980000000000002</v>
       </c>
     </row>
-    <row r="165" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P165" s="5">
         <v>0.17219999999999999</v>
       </c>
     </row>
-    <row r="166" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P166" s="5">
         <v>0.2702</v>
       </c>
     </row>
-    <row r="167" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P167" s="5">
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="168" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P168" s="5">
         <v>0.1646</v>
       </c>
     </row>
-    <row r="169" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P169" s="5">
         <v>0.1176</v>
       </c>
     </row>
-    <row r="170" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P170" s="5">
         <v>4.2299999999999997E-2</v>
       </c>
     </row>
-    <row r="171" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P171" s="5">
         <v>0.25080000000000002</v>
       </c>
     </row>
-    <row r="172" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P172" s="5">
         <v>0.22819999999999999</v>
       </c>
     </row>
-    <row r="173" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P173" s="5">
         <v>0.20330000000000001</v>
       </c>
     </row>
-    <row r="174" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P174" s="5">
         <v>6.6600000000000006E-2</v>
       </c>
     </row>
-    <row r="175" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P175" s="5">
         <v>0.31269999999999998</v>
       </c>
     </row>
-    <row r="176" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P176" s="5">
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="177" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P177" s="5">
         <v>0.1701</v>
       </c>
     </row>
-    <row r="178" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P178" s="5">
         <v>0.20230000000000001</v>
       </c>
     </row>
-    <row r="179" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P179" s="5">
         <v>0.17380000000000001</v>
       </c>
     </row>
-    <row r="180" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P180" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="181" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P181" s="5">
         <v>0.1714</v>
       </c>
